--- a/dataBase/utilities.xlsx
+++ b/dataBase/utilities.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projecs\pythonProject\dataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C6426-B047-4360-B879-E533BEFA46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="25425" yWindow="10500" windowWidth="12975" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Języki" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Wspólny</t>
+  </si>
+  <si>
+    <t>Mroczna mowa</t>
+  </si>
+  <si>
+    <t>Krasnoludzki</t>
+  </si>
+  <si>
+    <t>Elficki</t>
+  </si>
+  <si>
+    <t>Wysoki archaik</t>
+  </si>
+  <si>
+    <t>Trolli</t>
+  </si>
+  <si>
+    <t>Sekretne języki</t>
+  </si>
+  <si>
+    <t>Martwe języki</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +381,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataBase/utilities.xlsx
+++ b/dataBase/utilities.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projecs\pythonProject\dataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C6426-B047-4360-B879-E533BEFA46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3493ECBD-9A85-4106-B596-0F3BF8ACB934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25425" yWindow="10500" windowWidth="12975" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Języki" sheetId="1" r:id="rId1"/>
+    <sheet name="Zamożność" sheetId="2" r:id="rId2"/>
+    <sheet name="Kurioza A" sheetId="3" r:id="rId3"/>
+    <sheet name="Kurioza B" sheetId="4" r:id="rId4"/>
+    <sheet name="Kurioza C" sheetId="5" r:id="rId5"/>
+    <sheet name="Kurioza D" sheetId="6" r:id="rId6"/>
+    <sheet name="Kurioza E" sheetId="7" r:id="rId7"/>
+    <sheet name="Kurioza F" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>Wspólny</t>
   </si>
@@ -55,13 +62,435 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>3–4</t>
+  </si>
+  <si>
+    <t>Nędza: Żyjesz na ulicy bez grosza przy duszy.</t>
+  </si>
+  <si>
+    <t>5–8</t>
+  </si>
+  <si>
+    <t>Ubóstwo: Żyjesz w podłych warunkach; nigdy nie wiesz, czy kolejnego dnia nie będziesz głodny.</t>
+  </si>
+  <si>
+    <t>9–13</t>
+  </si>
+  <si>
+    <t>Klasa średnia: Zarabiasz wystarczająco dużo, by pokryć wszystkie bieżące wydatki.</t>
+  </si>
+  <si>
+    <t>14–16</t>
+  </si>
+  <si>
+    <t>Komfort: Żyjesz na dobrej stopie i zarabiasz na tyle, by móc co nieco odłożyć.</t>
+  </si>
+  <si>
+    <t>Dobrobyt: Żyjesz w luksusie. Stać cię na eleganckie ubrania i wszelkie wygody; prawdopodobnie od dłuższego czasu nie zaznałeś żadnego braku.</t>
+  </si>
+  <si>
+    <t>Bogactwo: Niczego ci nie brakuje. Zapewne pochodzisz ze szlacheckiego rodu; masz służących i posiadłość lub zamek w najlepszej części miasta. Twoja fortuna przysparza ci zarówno sojuszników, jak i wrogów.</t>
+  </si>
+  <si>
+    <t>Pałka lub proca z 20 kamieniami; łachmany; sakiewka z 1k6
+okrawków</t>
+  </si>
+  <si>
+    <t>Kostur, pałka lub proca z 20 kamieniami; połatane ubranie;
+sakwa podróżna; bochenek chleba; bukłak z wodą; hubka
+i krzesiwo; świeca; sakiewka z 2k6 okrawków.</t>
+  </si>
+  <si>
+    <t>Sztylet; kostur, pałka lub proca z 20 kamieniami; zwykłe
+ubranie; plecak; racje żywnościowe na tydzień; bukłak
+z wodą; hubka i krzesiwo; dwie pochodnie; sakiewka
+z 1k6 miedziaków</t>
+  </si>
+  <si>
+    <t>Sztylet; ubranie szlachcica; peleryna; racje żywnościowe
+na tydzień; bukłak z wodą; eliksir leczenia; sakiewka z 2k6
+srebrników. Masz także osobistego posługacza, ochroniarza
+i trzy konie z siodłami</t>
+  </si>
+  <si>
+    <t>Sztylet; ubranie dworzanina; plecak; peleryna; racje żywno-
+ściowe na tydzień; bukłak z wodą; zwój liny; hubka i krzesiwo; latarnia i dwie butelki oleju; eliksir leczenia; sakiewka z 1k6 srebrników. Do tego jedno z poniższych: tarcza; zwój
+z wybraną przez MG inkantacją kręgu 0; zestaw uzdrowiciela, zestaw pisarski lub narzędzia.</t>
+  </si>
+  <si>
+    <t>Sztylet; kostur, pałka lub proca z 20 kamieniami; wytworne
+ubranie; plecak; peleryna; racje żywnościowe na tydzień;
+bukłak z wodą; zwój liny; hubka i krzesiwo; dwie pochodnie; eliksir leczenia; sakiewka z 2k6 miedziaków. Do tego jedno z poniższych: mała tarcza ; zwój z wybraną przez
+MG inkantacją kręgu 0; zestaw uzdrowiciela, zestaw pisarski lub narzędzia.</t>
+  </si>
+  <si>
+    <t>Malutkie, metalowe pudełko bez widocznego wieczka, z którego dobywa się ciche tykanie.</t>
+  </si>
+  <si>
+    <t>Czaszka wyrzeźbiona z przejrzystego kryształu.</t>
+  </si>
+  <si>
+    <t>Szklana kula wypełniona wodą, w której pływa maleńka złota rybka.</t>
+  </si>
+  <si>
+    <t>Dziwny zapach, intensywny smród lub schorzenie skóry, które zdaje się nie przechodzić.</t>
+  </si>
+  <si>
+    <t>Butelka wypełniona dziewiczymi łzami.</t>
+  </si>
+  <si>
+    <t>Kwiat, który nie więdnie.</t>
+  </si>
+  <si>
+    <t>Mały magnes lub srebrne lusterko.</t>
+  </si>
+  <si>
+    <t>Zaproszenie na przyjęcie lub maska balowa.</t>
+  </si>
+  <si>
+    <t>Chustka z monogramem, która nigdy się nie brudzi.</t>
+  </si>
+  <si>
+    <t>Nietępiący się scyzoryk.</t>
+  </si>
+  <si>
+    <t>Para butów do tańca.</t>
+  </si>
+  <si>
+    <t>Niedziałający, maleńki mechaniczny pająk.</t>
+  </si>
+  <si>
+    <t>Zasuszona głowa.</t>
+  </si>
+  <si>
+    <t>Szklane oko lub bezoar.</t>
+  </si>
+  <si>
+    <t>Książka w nieznanym języku lub książka zawierająca rzeczy, których wolałbyś nie wiedzieć.</t>
+  </si>
+  <si>
+    <t>Talia kart wróżbity.</t>
+  </si>
+  <si>
+    <t>Para celowo źle wyważonych kości do gry.</t>
+  </si>
+  <si>
+    <t>Sześć małych ciastek, z których każde może nasycić tego, kto je zje, aż do następnego świtu.</t>
+  </si>
+  <si>
+    <t>Pojemnik ze skrawkiem papieru, na którym widnieje pojedyncze słowo.</t>
+  </si>
+  <si>
+    <t>Reputacja twardziela.</t>
+  </si>
+  <si>
+    <t>Flet, fletnia Pana lub inny instrument muzyczny.</t>
+  </si>
+  <si>
+    <t>Relikwiarz zawierający małą kość.</t>
+  </si>
+  <si>
+    <t>Maleńka figurka demona wyrzeźbiona z zielonego kamienia.</t>
+  </si>
+  <si>
+    <t>Upominek od wielbiciela lub kochanka.</t>
+  </si>
+  <si>
+    <t>Oswojona mysz, wiewiórka lub królik.</t>
+  </si>
+  <si>
+    <t>Monokl lub para ciężkich gogli.</t>
+  </si>
+  <si>
+    <t>Srebrny naszyjnik z medalionem.</t>
+  </si>
+  <si>
+    <t>Pełna tabakiera.</t>
+  </si>
+  <si>
+    <t>Połyskująca smocza łuska.</t>
+  </si>
+  <si>
+    <t>Jajo wielkości pięści, pokryte niebieskimi plamkami.</t>
+  </si>
+  <si>
+    <t>Nieodwzajemniona miłość.</t>
+  </si>
+  <si>
+    <t>Żeliwny kocioł pełen kości.</t>
+  </si>
+  <si>
+    <t>Pudełko z 1k20 żelaznych gwoździ.</t>
+  </si>
+  <si>
+    <t>Fiolka słodko pachnących perfum lub butelka bimbru.</t>
+  </si>
+  <si>
+    <t>Odlane ze spiżu ptasie pióro.</t>
+  </si>
+  <si>
+    <t>Żelazna moneta zadrapana po jednej stronie lub stalowa moneta ze smoczą głową po obu stronach.</t>
+  </si>
+  <si>
+    <t>Kasetka z 1k6 + 1 pędzli.</t>
+  </si>
+  <si>
+    <t>Poplamiona krwią lalka.</t>
+  </si>
+  <si>
+    <t>Srebrny pierścionek zaręczynowy wart 1 srebrnik.</t>
+  </si>
+  <si>
+    <t>Szczotka, grzebień lub parasolka.</t>
+  </si>
+  <si>
+    <t>Ręcznik lub kostka mydła.</t>
+  </si>
+  <si>
+    <t>Kłębek 30 metrów dratwy.</t>
+  </si>
+  <si>
+    <t>Niewielki portret, kosmyk włosów lub inny podarek od kogoś, kto cię kocha.</t>
+  </si>
+  <si>
+    <t>Mała beczułka piwa.</t>
+  </si>
+  <si>
+    <t>Pęczek króliczych skórek lub worek z garnkami i patelniami.</t>
+  </si>
+  <si>
+    <t>Strzała lub bełt z posrebrzanym grotem.</t>
+  </si>
+  <si>
+    <t>Połowa mapy wiodącej do skarbu, mapa odległej krainy lub wielka, niebieska mapa z licznymi kręgami opisanymi w dziwnym języku.</t>
+  </si>
+  <si>
+    <t>Wybrana przez MG broń.</t>
+  </si>
+  <si>
+    <t>Lekka lub ciężka tarcza z nietypowym herbem.</t>
+  </si>
+  <si>
+    <t>Wytworny strój z dziwną plamą.</t>
+  </si>
+  <si>
+    <t>Osobisty sługa.</t>
+  </si>
+  <si>
+    <t>Zrobiony ze srebra święty symbol lub pięknie wykonana ikona religijna.</t>
+  </si>
+  <si>
+    <t>Worek z 2k6 kamieni, żołędzi, odciętych głów lub smakowitych grzybów.</t>
+  </si>
+  <si>
+    <t>Pozytywka, która po otwarciu odgrywa rzewną melodię.</t>
+  </si>
+  <si>
+    <t>Woreczek 100 szklanych lub marmurowych kulek.</t>
+  </si>
+  <si>
+    <t>Szklany słój pełen śliny, worek gnijących kurzych szczątków lub paskudna szrama.</t>
+  </si>
+  <si>
+    <t>Mały woreczek z 3k6 zębów, naszyjnik z 1k6 uszu lub 1k6 odciętych głów związanych włosami w pęczek.</t>
+  </si>
+  <si>
+    <t>Nowo narodzone dziecko, które być może jest twoje.</t>
+  </si>
+  <si>
+    <t>Pudełko z sześcioma pięknymi, białymi świecami.</t>
+  </si>
+  <si>
+    <t>Mały pies o agresywnym charakterze.</t>
+  </si>
+  <si>
+    <t>Szklany słój z pokrytym świecącymi plamkami chrząszczem (daje tyle światła, co świeca).</t>
+  </si>
+  <si>
+    <t>Para butów, które dodają 1 ułatwienie przy testach skradania się, lub szara peleryna, która dodaje 1 ułatwienie przy testach ukrywania się.</t>
+  </si>
+  <si>
+    <t>Szklany słój z zanurzonym w alkoholu dziwnym organem.</t>
+  </si>
+  <si>
+    <t>Mała, szklana klatka.</t>
+  </si>
+  <si>
+    <t>Kasetka z 1k6 butelek tuszu, każdy w innym kolorze.</t>
+  </si>
+  <si>
+    <t>Niedziałająca, maleńka mechaniczna sowa.</t>
+  </si>
+  <si>
+    <t>Dwadzieścia metrów liny, której nie da się przeciąć.</t>
+  </si>
+  <si>
+    <t>Odznaka kompanii najemników.</t>
+  </si>
+  <si>
+    <t>Pudełko cygar lub fajka i woreczek tytoniu.</t>
+  </si>
+  <si>
+    <t>Medalion z podobizną szkaradnej kobiety.</t>
+  </si>
+  <si>
+    <t>Ćwiekowana obroża, kleszcze do skóry i pejcz.</t>
+  </si>
+  <si>
+    <t>Pięciokilogramowy worek mąki.</t>
+  </si>
+  <si>
+    <t>Wykuta z brązu płytka z wydrapanym na jednej stronie imieniem.</t>
+  </si>
+  <si>
+    <t>Kryształowa butelka z płynem, który po zdjęciu korka emituje światło w promieniu 2 metrów.</t>
+  </si>
+  <si>
+    <t>Małe pudełko z sześcioma kawałkami kredy.</t>
+  </si>
+  <si>
+    <t>List polecający od znanej i wpływowej osobistości.</t>
+  </si>
+  <si>
+    <t>Fragment lustra ukazujący nieznaną lokację.</t>
+  </si>
+  <si>
+    <t>Niewielka, złota klatka, wewnątrz której zamknięta jest żywa, choć niema, faerie.</t>
+  </si>
+  <si>
+    <t>Butelka z etykietą „Oko traszki”.</t>
+  </si>
+  <si>
+    <t>Worek fasoli.</t>
+  </si>
+  <si>
+    <t>Słoik smaru lub butelka kleju.</t>
+  </si>
+  <si>
+    <t>Szklana kula wypełniona kłębiącą się mgłą.</t>
+  </si>
+  <si>
+    <t>Peleryna z 2k20 ukrytymi w podszewce kieszonkami.</t>
+  </si>
+  <si>
+    <t>Para okularów, które czasami pozwalają ci widzieć przez lity kamień o grubości do 3 centymetrów.</t>
+  </si>
+  <si>
+    <t>Małe, niebieskie pudełko, które w środku jest większe niż z zewnątrz (dwa razy większa pojemność).</t>
+  </si>
+  <si>
+    <t>Mała, stalowa kulka.</t>
+  </si>
+  <si>
+    <t>Skamieniała ręka, która drga w świetle pełni księżyca.</t>
+  </si>
+  <si>
+    <t>Prawdziwe imię diabła bardzo niskiej rangi.</t>
+  </si>
+  <si>
+    <t>Ożywiony szkielet myszy.</t>
+  </si>
+  <si>
+    <t>Wybrana przez MG broń, która stale emituje światło w promieniu 1 metra.</t>
+  </si>
+  <si>
+    <t>Sakiewka z 1k6 + 1 szczyptami pyłu. Posypanie nim kamienia sprawia, że około 1 metr sześcienny zmienia się w miękką glinę.</t>
+  </si>
+  <si>
+    <t>Słoik farby, który codziennie o świcie z powrotem się napełnia.</t>
+  </si>
+  <si>
+    <t>Mała, metalowa kulka, która unosi się kilka centymetrów nad każdą twardą powierzchnią.</t>
+  </si>
+  <si>
+    <t>Sakiewka z 1k6 + 1 szczyptami diamentowego pyłu.</t>
+  </si>
+  <si>
+    <t>Mózg w słoju.</t>
+  </si>
+  <si>
+    <t>Woreczek różdżek wykonanych z materiału przypominającego surowe mięso.</t>
+  </si>
+  <si>
+    <t>Buława z purpurowego metalu, z wygrawerowanym na rękojeści imieniem.</t>
+  </si>
+  <si>
+    <t>Wielki kawał węgla drzewnego, z którego emanuje groza.</t>
+  </si>
+  <si>
+    <t>Zatopiona w bursztynie mucha o ludzkiej twarzy.</t>
+  </si>
+  <si>
+    <t>Życie pełne rozczarowań.</t>
+  </si>
+  <si>
+    <t>Reputacja niesamowitego kochanka.</t>
+  </si>
+  <si>
+    <t>Zmumifikowany niziołek.</t>
+  </si>
+  <si>
+    <t>Ubranie, które raz dziennie o zmroku może zmienić swój wygląd.</t>
+  </si>
+  <si>
+    <t>Puszka buraków.</t>
+  </si>
+  <si>
+    <t>Prześladowca, który podąża za tobą na każdym kroku, ale ucieka, gdy próbujesz się zbliżyć.</t>
+  </si>
+  <si>
+    <t>Haniebna przeszłość.</t>
+  </si>
+  <si>
+    <t>Powracający zły sen, który napełnia cię niepokojem.</t>
+  </si>
+  <si>
+    <t>Kufer pełen części ciała.</t>
+  </si>
+  <si>
+    <t>Wóz lub furmanka ciągnięta przez smutnego osła.</t>
+  </si>
+  <si>
+    <t>Trzy małe, białe myszki, które przez sen szepczą ci dziwne słowa.</t>
+  </si>
+  <si>
+    <t>Drgawki, tik nerwowy lub irytujący śmiech.</t>
+  </si>
+  <si>
+    <t>Termometr.</t>
+  </si>
+  <si>
+    <t>Składana tyczka o długości 3 metrów.</t>
+  </si>
+  <si>
+    <t>Twój cień, który nigdy nie porusza się do końca tak samo jak ty.</t>
+  </si>
+  <si>
+    <t>Strach i niechęć.</t>
+  </si>
+  <si>
+    <t>Słabość do butelki.</t>
+  </si>
+  <si>
+    <t>Cieniutka kolczuga, która liczy się jako lekki pancerz i może być noszona pod zwykłym ubraniem (ma statystyki kolczugi, a korzyści z jej noszenia nie kumulują się z innym pancerzem).</t>
+  </si>
+  <si>
+    <t>Dziwaczny fetysz.</t>
+  </si>
+  <si>
+    <t>Wymagający małżonek lub małżonka.</t>
+  </si>
+  <si>
+    <t>Straszny sekret, którego za nic nie ujawnisz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +507,29 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,13 +537,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -384,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,4 +944,1215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996B9A7F-C9E8-4CBB-9AFD-0852A09DA323}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4353CB-15B0-45D1-B808-F69678F7E011}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083F9089-5BA1-4C34-9398-EBF7237A4AFD}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB052657-FEAE-475A-AEBD-72178D95753E}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B849CCD-8677-435D-89AD-154D52F73EF5}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C953F1-0769-49B4-A44D-D5C103B93F6A}">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4325765C-B19D-4F65-81B2-F56477A550E1}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataBase/utilities.xlsx
+++ b/dataBase/utilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3493ECBD-9A85-4106-B596-0F3BF8ACB934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1DAAF-9975-4E29-8C14-F77BF8EAC256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14925" yWindow="5565" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Języki" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
   <si>
     <t>Wspólny</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Straszny sekret, którego za nic nie ujawnisz.</t>
+  </si>
+  <si>
+    <t>equipment</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,6 +970,9 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/dataBase/utilities.xlsx
+++ b/dataBase/utilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1DAAF-9975-4E29-8C14-F77BF8EAC256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE639F-41FC-4C9E-A3E1-0013458737F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="5565" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Języki" sheetId="1" r:id="rId1"/>
@@ -67,426 +67,420 @@
     <t>3–4</t>
   </si>
   <si>
-    <t>Nędza: Żyjesz na ulicy bez grosza przy duszy.</t>
-  </si>
-  <si>
     <t>5–8</t>
   </si>
   <si>
-    <t>Ubóstwo: Żyjesz w podłych warunkach; nigdy nie wiesz, czy kolejnego dnia nie będziesz głodny.</t>
-  </si>
-  <si>
     <t>9–13</t>
   </si>
   <si>
-    <t>Klasa średnia: Zarabiasz wystarczająco dużo, by pokryć wszystkie bieżące wydatki.</t>
-  </si>
-  <si>
     <t>14–16</t>
   </si>
   <si>
-    <t>Komfort: Żyjesz na dobrej stopie i zarabiasz na tyle, by móc co nieco odłożyć.</t>
-  </si>
-  <si>
-    <t>Dobrobyt: Żyjesz w luksusie. Stać cię na eleganckie ubrania i wszelkie wygody; prawdopodobnie od dłuższego czasu nie zaznałeś żadnego braku.</t>
-  </si>
-  <si>
-    <t>Bogactwo: Niczego ci nie brakuje. Zapewne pochodzisz ze szlacheckiego rodu; masz służących i posiadłość lub zamek w najlepszej części miasta. Twoja fortuna przysparza ci zarówno sojuszników, jak i wrogów.</t>
-  </si>
-  <si>
-    <t>Pałka lub proca z 20 kamieniami; łachmany; sakiewka z 1k6
-okrawków</t>
+    <t>Malutkie, metalowe pudełko bez widocznego wieczka, z którego dobywa się ciche tykanie.</t>
+  </si>
+  <si>
+    <t>Czaszka wyrzeźbiona z przejrzystego kryształu.</t>
+  </si>
+  <si>
+    <t>Szklana kula wypełniona wodą, w której pływa maleńka złota rybka.</t>
+  </si>
+  <si>
+    <t>Dziwny zapach, intensywny smród lub schorzenie skóry, które zdaje się nie przechodzić.</t>
+  </si>
+  <si>
+    <t>Butelka wypełniona dziewiczymi łzami.</t>
+  </si>
+  <si>
+    <t>Kwiat, który nie więdnie.</t>
+  </si>
+  <si>
+    <t>Mały magnes lub srebrne lusterko.</t>
+  </si>
+  <si>
+    <t>Zaproszenie na przyjęcie lub maska balowa.</t>
+  </si>
+  <si>
+    <t>Chustka z monogramem, która nigdy się nie brudzi.</t>
+  </si>
+  <si>
+    <t>Nietępiący się scyzoryk.</t>
+  </si>
+  <si>
+    <t>Para butów do tańca.</t>
+  </si>
+  <si>
+    <t>Niedziałający, maleńki mechaniczny pająk.</t>
+  </si>
+  <si>
+    <t>Zasuszona głowa.</t>
+  </si>
+  <si>
+    <t>Szklane oko lub bezoar.</t>
+  </si>
+  <si>
+    <t>Książka w nieznanym języku lub książka zawierająca rzeczy, których wolałbyś nie wiedzieć.</t>
+  </si>
+  <si>
+    <t>Talia kart wróżbity.</t>
+  </si>
+  <si>
+    <t>Para celowo źle wyważonych kości do gry.</t>
+  </si>
+  <si>
+    <t>Sześć małych ciastek, z których każde może nasycić tego, kto je zje, aż do następnego świtu.</t>
+  </si>
+  <si>
+    <t>Pojemnik ze skrawkiem papieru, na którym widnieje pojedyncze słowo.</t>
+  </si>
+  <si>
+    <t>Reputacja twardziela.</t>
+  </si>
+  <si>
+    <t>Flet, fletnia Pana lub inny instrument muzyczny.</t>
+  </si>
+  <si>
+    <t>Relikwiarz zawierający małą kość.</t>
+  </si>
+  <si>
+    <t>Maleńka figurka demona wyrzeźbiona z zielonego kamienia.</t>
+  </si>
+  <si>
+    <t>Upominek od wielbiciela lub kochanka.</t>
+  </si>
+  <si>
+    <t>Oswojona mysz, wiewiórka lub królik.</t>
+  </si>
+  <si>
+    <t>Monokl lub para ciężkich gogli.</t>
+  </si>
+  <si>
+    <t>Srebrny naszyjnik z medalionem.</t>
+  </si>
+  <si>
+    <t>Pełna tabakiera.</t>
+  </si>
+  <si>
+    <t>Połyskująca smocza łuska.</t>
+  </si>
+  <si>
+    <t>Jajo wielkości pięści, pokryte niebieskimi plamkami.</t>
+  </si>
+  <si>
+    <t>Nieodwzajemniona miłość.</t>
+  </si>
+  <si>
+    <t>Żeliwny kocioł pełen kości.</t>
+  </si>
+  <si>
+    <t>Pudełko z 1k20 żelaznych gwoździ.</t>
+  </si>
+  <si>
+    <t>Fiolka słodko pachnących perfum lub butelka bimbru.</t>
+  </si>
+  <si>
+    <t>Odlane ze spiżu ptasie pióro.</t>
+  </si>
+  <si>
+    <t>Żelazna moneta zadrapana po jednej stronie lub stalowa moneta ze smoczą głową po obu stronach.</t>
+  </si>
+  <si>
+    <t>Kasetka z 1k6 + 1 pędzli.</t>
+  </si>
+  <si>
+    <t>Poplamiona krwią lalka.</t>
+  </si>
+  <si>
+    <t>Srebrny pierścionek zaręczynowy wart 1 srebrnik.</t>
+  </si>
+  <si>
+    <t>Szczotka, grzebień lub parasolka.</t>
+  </si>
+  <si>
+    <t>Ręcznik lub kostka mydła.</t>
+  </si>
+  <si>
+    <t>Kłębek 30 metrów dratwy.</t>
+  </si>
+  <si>
+    <t>Niewielki portret, kosmyk włosów lub inny podarek od kogoś, kto cię kocha.</t>
+  </si>
+  <si>
+    <t>Mała beczułka piwa.</t>
+  </si>
+  <si>
+    <t>Pęczek króliczych skórek lub worek z garnkami i patelniami.</t>
+  </si>
+  <si>
+    <t>Strzała lub bełt z posrebrzanym grotem.</t>
+  </si>
+  <si>
+    <t>Połowa mapy wiodącej do skarbu, mapa odległej krainy lub wielka, niebieska mapa z licznymi kręgami opisanymi w dziwnym języku.</t>
+  </si>
+  <si>
+    <t>Wybrana przez MG broń.</t>
+  </si>
+  <si>
+    <t>Lekka lub ciężka tarcza z nietypowym herbem.</t>
+  </si>
+  <si>
+    <t>Wytworny strój z dziwną plamą.</t>
+  </si>
+  <si>
+    <t>Osobisty sługa.</t>
+  </si>
+  <si>
+    <t>Zrobiony ze srebra święty symbol lub pięknie wykonana ikona religijna.</t>
+  </si>
+  <si>
+    <t>Worek z 2k6 kamieni, żołędzi, odciętych głów lub smakowitych grzybów.</t>
+  </si>
+  <si>
+    <t>Pozytywka, która po otwarciu odgrywa rzewną melodię.</t>
+  </si>
+  <si>
+    <t>Woreczek 100 szklanych lub marmurowych kulek.</t>
+  </si>
+  <si>
+    <t>Szklany słój pełen śliny, worek gnijących kurzych szczątków lub paskudna szrama.</t>
+  </si>
+  <si>
+    <t>Mały woreczek z 3k6 zębów, naszyjnik z 1k6 uszu lub 1k6 odciętych głów związanych włosami w pęczek.</t>
+  </si>
+  <si>
+    <t>Nowo narodzone dziecko, które być może jest twoje.</t>
+  </si>
+  <si>
+    <t>Pudełko z sześcioma pięknymi, białymi świecami.</t>
+  </si>
+  <si>
+    <t>Mały pies o agresywnym charakterze.</t>
+  </si>
+  <si>
+    <t>Szklany słój z pokrytym świecącymi plamkami chrząszczem (daje tyle światła, co świeca).</t>
+  </si>
+  <si>
+    <t>Para butów, które dodają 1 ułatwienie przy testach skradania się, lub szara peleryna, która dodaje 1 ułatwienie przy testach ukrywania się.</t>
+  </si>
+  <si>
+    <t>Szklany słój z zanurzonym w alkoholu dziwnym organem.</t>
+  </si>
+  <si>
+    <t>Mała, szklana klatka.</t>
+  </si>
+  <si>
+    <t>Kasetka z 1k6 butelek tuszu, każdy w innym kolorze.</t>
+  </si>
+  <si>
+    <t>Niedziałająca, maleńka mechaniczna sowa.</t>
+  </si>
+  <si>
+    <t>Dwadzieścia metrów liny, której nie da się przeciąć.</t>
+  </si>
+  <si>
+    <t>Odznaka kompanii najemników.</t>
+  </si>
+  <si>
+    <t>Pudełko cygar lub fajka i woreczek tytoniu.</t>
+  </si>
+  <si>
+    <t>Medalion z podobizną szkaradnej kobiety.</t>
+  </si>
+  <si>
+    <t>Ćwiekowana obroża, kleszcze do skóry i pejcz.</t>
+  </si>
+  <si>
+    <t>Pięciokilogramowy worek mąki.</t>
+  </si>
+  <si>
+    <t>Wykuta z brązu płytka z wydrapanym na jednej stronie imieniem.</t>
+  </si>
+  <si>
+    <t>Kryształowa butelka z płynem, który po zdjęciu korka emituje światło w promieniu 2 metrów.</t>
+  </si>
+  <si>
+    <t>Małe pudełko z sześcioma kawałkami kredy.</t>
+  </si>
+  <si>
+    <t>List polecający od znanej i wpływowej osobistości.</t>
+  </si>
+  <si>
+    <t>Fragment lustra ukazujący nieznaną lokację.</t>
+  </si>
+  <si>
+    <t>Niewielka, złota klatka, wewnątrz której zamknięta jest żywa, choć niema, faerie.</t>
+  </si>
+  <si>
+    <t>Butelka z etykietą „Oko traszki”.</t>
+  </si>
+  <si>
+    <t>Worek fasoli.</t>
+  </si>
+  <si>
+    <t>Słoik smaru lub butelka kleju.</t>
+  </si>
+  <si>
+    <t>Szklana kula wypełniona kłębiącą się mgłą.</t>
+  </si>
+  <si>
+    <t>Peleryna z 2k20 ukrytymi w podszewce kieszonkami.</t>
+  </si>
+  <si>
+    <t>Para okularów, które czasami pozwalają ci widzieć przez lity kamień o grubości do 3 centymetrów.</t>
+  </si>
+  <si>
+    <t>Małe, niebieskie pudełko, które w środku jest większe niż z zewnątrz (dwa razy większa pojemność).</t>
+  </si>
+  <si>
+    <t>Mała, stalowa kulka.</t>
+  </si>
+  <si>
+    <t>Skamieniała ręka, która drga w świetle pełni księżyca.</t>
+  </si>
+  <si>
+    <t>Prawdziwe imię diabła bardzo niskiej rangi.</t>
+  </si>
+  <si>
+    <t>Ożywiony szkielet myszy.</t>
+  </si>
+  <si>
+    <t>Wybrana przez MG broń, która stale emituje światło w promieniu 1 metra.</t>
+  </si>
+  <si>
+    <t>Sakiewka z 1k6 + 1 szczyptami pyłu. Posypanie nim kamienia sprawia, że około 1 metr sześcienny zmienia się w miękką glinę.</t>
+  </si>
+  <si>
+    <t>Słoik farby, który codziennie o świcie z powrotem się napełnia.</t>
+  </si>
+  <si>
+    <t>Mała, metalowa kulka, która unosi się kilka centymetrów nad każdą twardą powierzchnią.</t>
+  </si>
+  <si>
+    <t>Sakiewka z 1k6 + 1 szczyptami diamentowego pyłu.</t>
+  </si>
+  <si>
+    <t>Mózg w słoju.</t>
+  </si>
+  <si>
+    <t>Woreczek różdżek wykonanych z materiału przypominającego surowe mięso.</t>
+  </si>
+  <si>
+    <t>Buława z purpurowego metalu, z wygrawerowanym na rękojeści imieniem.</t>
+  </si>
+  <si>
+    <t>Wielki kawał węgla drzewnego, z którego emanuje groza.</t>
+  </si>
+  <si>
+    <t>Zatopiona w bursztynie mucha o ludzkiej twarzy.</t>
+  </si>
+  <si>
+    <t>Życie pełne rozczarowań.</t>
+  </si>
+  <si>
+    <t>Reputacja niesamowitego kochanka.</t>
+  </si>
+  <si>
+    <t>Zmumifikowany niziołek.</t>
+  </si>
+  <si>
+    <t>Ubranie, które raz dziennie o zmroku może zmienić swój wygląd.</t>
+  </si>
+  <si>
+    <t>Puszka buraków.</t>
+  </si>
+  <si>
+    <t>Prześladowca, który podąża za tobą na każdym kroku, ale ucieka, gdy próbujesz się zbliżyć.</t>
+  </si>
+  <si>
+    <t>Haniebna przeszłość.</t>
+  </si>
+  <si>
+    <t>Powracający zły sen, który napełnia cię niepokojem.</t>
+  </si>
+  <si>
+    <t>Kufer pełen części ciała.</t>
+  </si>
+  <si>
+    <t>Wóz lub furmanka ciągnięta przez smutnego osła.</t>
+  </si>
+  <si>
+    <t>Trzy małe, białe myszki, które przez sen szepczą ci dziwne słowa.</t>
+  </si>
+  <si>
+    <t>Drgawki, tik nerwowy lub irytujący śmiech.</t>
+  </si>
+  <si>
+    <t>Termometr.</t>
+  </si>
+  <si>
+    <t>Składana tyczka o długości 3 metrów.</t>
+  </si>
+  <si>
+    <t>Twój cień, który nigdy nie porusza się do końca tak samo jak ty.</t>
+  </si>
+  <si>
+    <t>Strach i niechęć.</t>
+  </si>
+  <si>
+    <t>Słabość do butelki.</t>
+  </si>
+  <si>
+    <t>Cieniutka kolczuga, która liczy się jako lekki pancerz i może być noszona pod zwykłym ubraniem (ma statystyki kolczugi, a korzyści z jej noszenia nie kumulują się z innym pancerzem).</t>
+  </si>
+  <si>
+    <t>Dziwaczny fetysz.</t>
+  </si>
+  <si>
+    <t>Wymagający małżonek lub małżonka.</t>
+  </si>
+  <si>
+    <t>Straszny sekret, którego za nic nie ujawnisz.</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>Sztylet; kostur, pałka lub proca z 20 kamieniami; zwykłe
+ubranie; plecak; racje żywnościowe na tydzień; bukłak
+z wodą; hubka i krzesiwo; dwie pochodnie.</t>
   </si>
   <si>
     <t>Kostur, pałka lub proca z 20 kamieniami; połatane ubranie;
 sakwa podróżna; bochenek chleba; bukłak z wodą; hubka
-i krzesiwo; świeca; sakiewka z 2k6 okrawków.</t>
-  </si>
-  <si>
-    <t>Sztylet; kostur, pałka lub proca z 20 kamieniami; zwykłe
-ubranie; plecak; racje żywnościowe na tydzień; bukłak
-z wodą; hubka i krzesiwo; dwie pochodnie; sakiewka
-z 1k6 miedziaków</t>
+i krzesiwo; świeca.</t>
   </si>
   <si>
     <t>Sztylet; ubranie szlachcica; peleryna; racje żywnościowe
-na tydzień; bukłak z wodą; eliksir leczenia; sakiewka z 2k6
-srebrników. Masz także osobistego posługacza, ochroniarza
-i trzy konie z siodłami</t>
+na tydzień; bukłak z wodą; eliksir leczenia. Masz także osobistego posługacza, ochroniarza i trzy konie z siodłami</t>
   </si>
   <si>
     <t>Sztylet; ubranie dworzanina; plecak; peleryna; racje żywno-
-ściowe na tydzień; bukłak z wodą; zwój liny; hubka i krzesiwo; latarnia i dwie butelki oleju; eliksir leczenia; sakiewka z 1k6 srebrników. Do tego jedno z poniższych: tarcza; zwój
-z wybraną przez MG inkantacją kręgu 0; zestaw uzdrowiciela, zestaw pisarski lub narzędzia.</t>
+ściowe na tydzień; bukłak z wodą; zwój liny; hubka i krzesiwo; latarnia i dwie butelki oleju; eliksir leczenia. Do tego jedno z poniższych: tarcza; zwój z wybraną przez MG inkantacją kręgu 0; zestaw uzdrowiciela, zestaw pisarski lub narzędzia.</t>
   </si>
   <si>
     <t>Sztylet; kostur, pałka lub proca z 20 kamieniami; wytworne
 ubranie; plecak; peleryna; racje żywnościowe na tydzień;
-bukłak z wodą; zwój liny; hubka i krzesiwo; dwie pochodnie; eliksir leczenia; sakiewka z 2k6 miedziaków. Do tego jedno z poniższych: mała tarcza ; zwój z wybraną przez
-MG inkantacją kręgu 0; zestaw uzdrowiciela, zestaw pisarski lub narzędzia.</t>
-  </si>
-  <si>
-    <t>Malutkie, metalowe pudełko bez widocznego wieczka, z którego dobywa się ciche tykanie.</t>
-  </si>
-  <si>
-    <t>Czaszka wyrzeźbiona z przejrzystego kryształu.</t>
-  </si>
-  <si>
-    <t>Szklana kula wypełniona wodą, w której pływa maleńka złota rybka.</t>
-  </si>
-  <si>
-    <t>Dziwny zapach, intensywny smród lub schorzenie skóry, które zdaje się nie przechodzić.</t>
-  </si>
-  <si>
-    <t>Butelka wypełniona dziewiczymi łzami.</t>
-  </si>
-  <si>
-    <t>Kwiat, który nie więdnie.</t>
-  </si>
-  <si>
-    <t>Mały magnes lub srebrne lusterko.</t>
-  </si>
-  <si>
-    <t>Zaproszenie na przyjęcie lub maska balowa.</t>
-  </si>
-  <si>
-    <t>Chustka z monogramem, która nigdy się nie brudzi.</t>
-  </si>
-  <si>
-    <t>Nietępiący się scyzoryk.</t>
-  </si>
-  <si>
-    <t>Para butów do tańca.</t>
-  </si>
-  <si>
-    <t>Niedziałający, maleńki mechaniczny pająk.</t>
-  </si>
-  <si>
-    <t>Zasuszona głowa.</t>
-  </si>
-  <si>
-    <t>Szklane oko lub bezoar.</t>
-  </si>
-  <si>
-    <t>Książka w nieznanym języku lub książka zawierająca rzeczy, których wolałbyś nie wiedzieć.</t>
-  </si>
-  <si>
-    <t>Talia kart wróżbity.</t>
-  </si>
-  <si>
-    <t>Para celowo źle wyważonych kości do gry.</t>
-  </si>
-  <si>
-    <t>Sześć małych ciastek, z których każde może nasycić tego, kto je zje, aż do następnego świtu.</t>
-  </si>
-  <si>
-    <t>Pojemnik ze skrawkiem papieru, na którym widnieje pojedyncze słowo.</t>
-  </si>
-  <si>
-    <t>Reputacja twardziela.</t>
-  </si>
-  <si>
-    <t>Flet, fletnia Pana lub inny instrument muzyczny.</t>
-  </si>
-  <si>
-    <t>Relikwiarz zawierający małą kość.</t>
-  </si>
-  <si>
-    <t>Maleńka figurka demona wyrzeźbiona z zielonego kamienia.</t>
-  </si>
-  <si>
-    <t>Upominek od wielbiciela lub kochanka.</t>
-  </si>
-  <si>
-    <t>Oswojona mysz, wiewiórka lub królik.</t>
-  </si>
-  <si>
-    <t>Monokl lub para ciężkich gogli.</t>
-  </si>
-  <si>
-    <t>Srebrny naszyjnik z medalionem.</t>
-  </si>
-  <si>
-    <t>Pełna tabakiera.</t>
-  </si>
-  <si>
-    <t>Połyskująca smocza łuska.</t>
-  </si>
-  <si>
-    <t>Jajo wielkości pięści, pokryte niebieskimi plamkami.</t>
-  </si>
-  <si>
-    <t>Nieodwzajemniona miłość.</t>
-  </si>
-  <si>
-    <t>Żeliwny kocioł pełen kości.</t>
-  </si>
-  <si>
-    <t>Pudełko z 1k20 żelaznych gwoździ.</t>
-  </si>
-  <si>
-    <t>Fiolka słodko pachnących perfum lub butelka bimbru.</t>
-  </si>
-  <si>
-    <t>Odlane ze spiżu ptasie pióro.</t>
-  </si>
-  <si>
-    <t>Żelazna moneta zadrapana po jednej stronie lub stalowa moneta ze smoczą głową po obu stronach.</t>
-  </si>
-  <si>
-    <t>Kasetka z 1k6 + 1 pędzli.</t>
-  </si>
-  <si>
-    <t>Poplamiona krwią lalka.</t>
-  </si>
-  <si>
-    <t>Srebrny pierścionek zaręczynowy wart 1 srebrnik.</t>
-  </si>
-  <si>
-    <t>Szczotka, grzebień lub parasolka.</t>
-  </si>
-  <si>
-    <t>Ręcznik lub kostka mydła.</t>
-  </si>
-  <si>
-    <t>Kłębek 30 metrów dratwy.</t>
-  </si>
-  <si>
-    <t>Niewielki portret, kosmyk włosów lub inny podarek od kogoś, kto cię kocha.</t>
-  </si>
-  <si>
-    <t>Mała beczułka piwa.</t>
-  </si>
-  <si>
-    <t>Pęczek króliczych skórek lub worek z garnkami i patelniami.</t>
-  </si>
-  <si>
-    <t>Strzała lub bełt z posrebrzanym grotem.</t>
-  </si>
-  <si>
-    <t>Połowa mapy wiodącej do skarbu, mapa odległej krainy lub wielka, niebieska mapa z licznymi kręgami opisanymi w dziwnym języku.</t>
-  </si>
-  <si>
-    <t>Wybrana przez MG broń.</t>
-  </si>
-  <si>
-    <t>Lekka lub ciężka tarcza z nietypowym herbem.</t>
-  </si>
-  <si>
-    <t>Wytworny strój z dziwną plamą.</t>
-  </si>
-  <si>
-    <t>Osobisty sługa.</t>
-  </si>
-  <si>
-    <t>Zrobiony ze srebra święty symbol lub pięknie wykonana ikona religijna.</t>
-  </si>
-  <si>
-    <t>Worek z 2k6 kamieni, żołędzi, odciętych głów lub smakowitych grzybów.</t>
-  </si>
-  <si>
-    <t>Pozytywka, która po otwarciu odgrywa rzewną melodię.</t>
-  </si>
-  <si>
-    <t>Woreczek 100 szklanych lub marmurowych kulek.</t>
-  </si>
-  <si>
-    <t>Szklany słój pełen śliny, worek gnijących kurzych szczątków lub paskudna szrama.</t>
-  </si>
-  <si>
-    <t>Mały woreczek z 3k6 zębów, naszyjnik z 1k6 uszu lub 1k6 odciętych głów związanych włosami w pęczek.</t>
-  </si>
-  <si>
-    <t>Nowo narodzone dziecko, które być może jest twoje.</t>
-  </si>
-  <si>
-    <t>Pudełko z sześcioma pięknymi, białymi świecami.</t>
-  </si>
-  <si>
-    <t>Mały pies o agresywnym charakterze.</t>
-  </si>
-  <si>
-    <t>Szklany słój z pokrytym świecącymi plamkami chrząszczem (daje tyle światła, co świeca).</t>
-  </si>
-  <si>
-    <t>Para butów, które dodają 1 ułatwienie przy testach skradania się, lub szara peleryna, która dodaje 1 ułatwienie przy testach ukrywania się.</t>
-  </si>
-  <si>
-    <t>Szklany słój z zanurzonym w alkoholu dziwnym organem.</t>
-  </si>
-  <si>
-    <t>Mała, szklana klatka.</t>
-  </si>
-  <si>
-    <t>Kasetka z 1k6 butelek tuszu, każdy w innym kolorze.</t>
-  </si>
-  <si>
-    <t>Niedziałająca, maleńka mechaniczna sowa.</t>
-  </si>
-  <si>
-    <t>Dwadzieścia metrów liny, której nie da się przeciąć.</t>
-  </si>
-  <si>
-    <t>Odznaka kompanii najemników.</t>
-  </si>
-  <si>
-    <t>Pudełko cygar lub fajka i woreczek tytoniu.</t>
-  </si>
-  <si>
-    <t>Medalion z podobizną szkaradnej kobiety.</t>
-  </si>
-  <si>
-    <t>Ćwiekowana obroża, kleszcze do skóry i pejcz.</t>
-  </si>
-  <si>
-    <t>Pięciokilogramowy worek mąki.</t>
-  </si>
-  <si>
-    <t>Wykuta z brązu płytka z wydrapanym na jednej stronie imieniem.</t>
-  </si>
-  <si>
-    <t>Kryształowa butelka z płynem, który po zdjęciu korka emituje światło w promieniu 2 metrów.</t>
-  </si>
-  <si>
-    <t>Małe pudełko z sześcioma kawałkami kredy.</t>
-  </si>
-  <si>
-    <t>List polecający od znanej i wpływowej osobistości.</t>
-  </si>
-  <si>
-    <t>Fragment lustra ukazujący nieznaną lokację.</t>
-  </si>
-  <si>
-    <t>Niewielka, złota klatka, wewnątrz której zamknięta jest żywa, choć niema, faerie.</t>
-  </si>
-  <si>
-    <t>Butelka z etykietą „Oko traszki”.</t>
-  </si>
-  <si>
-    <t>Worek fasoli.</t>
-  </si>
-  <si>
-    <t>Słoik smaru lub butelka kleju.</t>
-  </si>
-  <si>
-    <t>Szklana kula wypełniona kłębiącą się mgłą.</t>
-  </si>
-  <si>
-    <t>Peleryna z 2k20 ukrytymi w podszewce kieszonkami.</t>
-  </si>
-  <si>
-    <t>Para okularów, które czasami pozwalają ci widzieć przez lity kamień o grubości do 3 centymetrów.</t>
-  </si>
-  <si>
-    <t>Małe, niebieskie pudełko, które w środku jest większe niż z zewnątrz (dwa razy większa pojemność).</t>
-  </si>
-  <si>
-    <t>Mała, stalowa kulka.</t>
-  </si>
-  <si>
-    <t>Skamieniała ręka, która drga w świetle pełni księżyca.</t>
-  </si>
-  <si>
-    <t>Prawdziwe imię diabła bardzo niskiej rangi.</t>
-  </si>
-  <si>
-    <t>Ożywiony szkielet myszy.</t>
-  </si>
-  <si>
-    <t>Wybrana przez MG broń, która stale emituje światło w promieniu 1 metra.</t>
-  </si>
-  <si>
-    <t>Sakiewka z 1k6 + 1 szczyptami pyłu. Posypanie nim kamienia sprawia, że około 1 metr sześcienny zmienia się w miękką glinę.</t>
-  </si>
-  <si>
-    <t>Słoik farby, który codziennie o świcie z powrotem się napełnia.</t>
-  </si>
-  <si>
-    <t>Mała, metalowa kulka, która unosi się kilka centymetrów nad każdą twardą powierzchnią.</t>
-  </si>
-  <si>
-    <t>Sakiewka z 1k6 + 1 szczyptami diamentowego pyłu.</t>
-  </si>
-  <si>
-    <t>Mózg w słoju.</t>
-  </si>
-  <si>
-    <t>Woreczek różdżek wykonanych z materiału przypominającego surowe mięso.</t>
-  </si>
-  <si>
-    <t>Buława z purpurowego metalu, z wygrawerowanym na rękojeści imieniem.</t>
-  </si>
-  <si>
-    <t>Wielki kawał węgla drzewnego, z którego emanuje groza.</t>
-  </si>
-  <si>
-    <t>Zatopiona w bursztynie mucha o ludzkiej twarzy.</t>
-  </si>
-  <si>
-    <t>Życie pełne rozczarowań.</t>
-  </si>
-  <si>
-    <t>Reputacja niesamowitego kochanka.</t>
-  </si>
-  <si>
-    <t>Zmumifikowany niziołek.</t>
-  </si>
-  <si>
-    <t>Ubranie, które raz dziennie o zmroku może zmienić swój wygląd.</t>
-  </si>
-  <si>
-    <t>Puszka buraków.</t>
-  </si>
-  <si>
-    <t>Prześladowca, który podąża za tobą na każdym kroku, ale ucieka, gdy próbujesz się zbliżyć.</t>
-  </si>
-  <si>
-    <t>Haniebna przeszłość.</t>
-  </si>
-  <si>
-    <t>Powracający zły sen, który napełnia cię niepokojem.</t>
-  </si>
-  <si>
-    <t>Kufer pełen części ciała.</t>
-  </si>
-  <si>
-    <t>Wóz lub furmanka ciągnięta przez smutnego osła.</t>
-  </si>
-  <si>
-    <t>Trzy małe, białe myszki, które przez sen szepczą ci dziwne słowa.</t>
-  </si>
-  <si>
-    <t>Drgawki, tik nerwowy lub irytujący śmiech.</t>
-  </si>
-  <si>
-    <t>Termometr.</t>
-  </si>
-  <si>
-    <t>Składana tyczka o długości 3 metrów.</t>
-  </si>
-  <si>
-    <t>Twój cień, który nigdy nie porusza się do końca tak samo jak ty.</t>
-  </si>
-  <si>
-    <t>Strach i niechęć.</t>
-  </si>
-  <si>
-    <t>Słabość do butelki.</t>
-  </si>
-  <si>
-    <t>Cieniutka kolczuga, która liczy się jako lekki pancerz i może być noszona pod zwykłym ubraniem (ma statystyki kolczugi, a korzyści z jej noszenia nie kumulują się z innym pancerzem).</t>
-  </si>
-  <si>
-    <t>Dziwaczny fetysz.</t>
-  </si>
-  <si>
-    <t>Wymagający małżonek lub małżonka.</t>
-  </si>
-  <si>
-    <t>Straszny sekret, którego za nic nie ujawnisz.</t>
-  </si>
-  <si>
-    <t>equipment</t>
+bukłak z wodą; zwój liny; hubka i krzesiwo; dwie pochodnie; eliksir leczenia. Do tego jedno z poniższych: mała tarcza; zwój z wybraną przez MG inkantacją kręgu 0; zestaw uzdrowiciela, zestaw pisarski lub narzędzia.</t>
+  </si>
+  <si>
+    <t>Nędza (s.26 PG)</t>
+  </si>
+  <si>
+    <t>Ubóstwo (s.26 PG)</t>
+  </si>
+  <si>
+    <t>Klasa średnia (s.26 PG)</t>
+  </si>
+  <si>
+    <t>Komfort (s.26 PG)</t>
+  </si>
+  <si>
+    <t>Dobrobyt (s.26 PG)</t>
+  </si>
+  <si>
+    <t>Bogactwo (s.26 PG)</t>
+  </si>
+  <si>
+    <t>Pałka lub proca z 20 kamieniami; łachmany</t>
   </si>
 </sst>
 </file>
@@ -954,7 +948,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,73 +966,73 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1046,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1081,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1097,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1105,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1113,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1129,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1137,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1145,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1161,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1169,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1217,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1225,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1267,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1275,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1283,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1291,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1299,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1307,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1315,7 +1309,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1323,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1331,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1347,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1355,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1363,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1371,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1379,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1397,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1411,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1428,6 +1422,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1437,164 +1434,164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1641,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1657,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
@@ -1665,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1673,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1681,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
@@ -1689,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1697,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1705,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1729,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1737,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1745,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
@@ -1753,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1766,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1777,7 +1774,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
@@ -1812,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1828,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
@@ -1836,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
@@ -1844,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1852,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1868,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1884,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1892,7 +1889,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
@@ -1900,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1908,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1916,7 +1913,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1924,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
@@ -1932,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
@@ -1940,7 +1937,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1948,7 +1945,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1956,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1964,7 +1961,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="13:14" x14ac:dyDescent="0.25">
@@ -1981,10 +1978,13 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1994,164 +1994,164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="9:10" x14ac:dyDescent="0.25">

--- a/dataBase/utilities.xlsx
+++ b/dataBase/utilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE639F-41FC-4C9E-A3E1-0013458737F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E39571-132A-4C1D-BD3F-8FED2B8099ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41070" yWindow="4410" windowWidth="18120" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Języki" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
